--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>146.8421712579391</v>
       </c>
       <c r="C2" t="n">
-        <v>116.8625210555441</v>
+        <v>118.9414976108046</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5217439246058</v>
+        <v>177.7096374671314</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>44960</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.429409328153483</v>
+        <v>-5.429409328153454</v>
       </c>
       <c r="C3" t="n">
-        <v>-37.19868230198615</v>
+        <v>-37.26794437128411</v>
       </c>
       <c r="D3" t="n">
-        <v>27.66928342129187</v>
+        <v>24.9741642853152</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-173.33127842488</v>
+        <v>-173.3312784248796</v>
       </c>
       <c r="C4" t="n">
-        <v>-201.3487321655986</v>
+        <v>-202.349079131785</v>
       </c>
       <c r="D4" t="n">
-        <v>-143.6146732162962</v>
+        <v>-144.9974366824323</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45013</v>
       </c>
       <c r="B5" t="n">
-        <v>-137.3345712056055</v>
+        <v>-137.3345712056589</v>
       </c>
       <c r="C5" t="n">
-        <v>-165.5831170591822</v>
+        <v>-163.7675993511691</v>
       </c>
       <c r="D5" t="n">
-        <v>-107.9105949541654</v>
+        <v>-109.3477470913845</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>45030</v>
       </c>
       <c r="B6" t="n">
-        <v>6.264667556163161</v>
+        <v>6.264667556163182</v>
       </c>
       <c r="C6" t="n">
-        <v>-33.68014449386246</v>
+        <v>-32.03546236937579</v>
       </c>
       <c r="D6" t="n">
-        <v>43.77345906913995</v>
+        <v>44.54590651026308</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45037</v>
       </c>
       <c r="B7" t="n">
-        <v>4.482540821748017</v>
+        <v>4.482540821747982</v>
       </c>
       <c r="C7" t="n">
-        <v>-32.64440242002183</v>
+        <v>-33.9132979096245</v>
       </c>
       <c r="D7" t="n">
-        <v>41.97066294282254</v>
+        <v>42.30454135109527</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45051</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4364558751960317</v>
+        <v>0.4364558751951222</v>
       </c>
       <c r="C8" t="n">
-        <v>-37.89864284854482</v>
+        <v>-32.45269332997205</v>
       </c>
       <c r="D8" t="n">
-        <v>37.30569945439768</v>
+        <v>36.51443022633553</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -616,13 +616,13 @@
         <v>45058</v>
       </c>
       <c r="B9" t="n">
-        <v>4.61813905086391</v>
+        <v>4.618139050863782</v>
       </c>
       <c r="C9" t="n">
-        <v>-30.37438183689751</v>
+        <v>-28.86268083734464</v>
       </c>
       <c r="D9" t="n">
-        <v>39.24257906252259</v>
+        <v>36.46891519981125</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -697,22 +697,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9255.341146275343</v>
+        <v>9255.341146277271</v>
       </c>
       <c r="C2" t="n">
-        <v>96.20468359843684</v>
+        <v>96.20468359844686</v>
       </c>
       <c r="D2" t="n">
-        <v>63.8919533640759</v>
+        <v>63.89195336408261</v>
       </c>
       <c r="E2" t="n">
-        <v>7.741040585876107</v>
+        <v>7.741040585876945</v>
       </c>
       <c r="F2" t="n">
-        <v>1.330245252276342</v>
+        <v>1.330245252276359</v>
       </c>
       <c r="G2" t="n">
-        <v>1.383101480074389</v>
+        <v>1.38310148007441</v>
       </c>
       <c r="H2" t="n">
         <v>0.625</v>

--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>146.8421712579391</v>
       </c>
       <c r="C2" t="n">
-        <v>118.9414976108046</v>
+        <v>117.1854749359972</v>
       </c>
       <c r="D2" t="n">
-        <v>177.7096374671314</v>
+        <v>176.9565107195716</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -496,13 +496,13 @@
         <v>44960</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.429409328153454</v>
+        <v>-5.429409328153596</v>
       </c>
       <c r="C3" t="n">
-        <v>-37.26794437128411</v>
+        <v>-38.53935104550074</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9741642853152</v>
+        <v>25.9992461483827</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -516,13 +516,13 @@
         <v>44980</v>
       </c>
       <c r="B4" t="n">
-        <v>-173.3312784248796</v>
+        <v>-173.3312784248795</v>
       </c>
       <c r="C4" t="n">
-        <v>-202.349079131785</v>
+        <v>-202.8387417369107</v>
       </c>
       <c r="D4" t="n">
-        <v>-144.9974366824323</v>
+        <v>-143.3682900066848</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45013</v>
       </c>
       <c r="B5" t="n">
-        <v>-137.3345712056589</v>
+        <v>-137.3345712056212</v>
       </c>
       <c r="C5" t="n">
-        <v>-163.7675993511691</v>
+        <v>-167.063036993626</v>
       </c>
       <c r="D5" t="n">
-        <v>-109.3477470913845</v>
+        <v>-108.3062583190663</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>45030</v>
       </c>
       <c r="B6" t="n">
-        <v>6.264667556163182</v>
+        <v>6.264667556163126</v>
       </c>
       <c r="C6" t="n">
-        <v>-32.03546236937579</v>
+        <v>-32.55228336396421</v>
       </c>
       <c r="D6" t="n">
-        <v>44.54590651026308</v>
+        <v>42.5289541656909</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45037</v>
       </c>
       <c r="B7" t="n">
-        <v>4.482540821747982</v>
+        <v>4.482540821748039</v>
       </c>
       <c r="C7" t="n">
-        <v>-33.9132979096245</v>
+        <v>-31.67385358759028</v>
       </c>
       <c r="D7" t="n">
-        <v>42.30454135109527</v>
+        <v>40.65054214303533</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45051</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4364558751951222</v>
+        <v>0.4364558751935022</v>
       </c>
       <c r="C8" t="n">
-        <v>-32.45269332997205</v>
+        <v>-35.3172627332839</v>
       </c>
       <c r="D8" t="n">
-        <v>36.51443022633553</v>
+        <v>33.87297099388086</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -616,13 +616,13 @@
         <v>45058</v>
       </c>
       <c r="B9" t="n">
-        <v>4.618139050863782</v>
+        <v>4.61813905086391</v>
       </c>
       <c r="C9" t="n">
-        <v>-28.86268083734464</v>
+        <v>-32.52041909407083</v>
       </c>
       <c r="D9" t="n">
-        <v>36.46891519981125</v>
+        <v>38.71730189432564</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -697,22 +697,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9255.341146277271</v>
+        <v>9255.341146275903</v>
       </c>
       <c r="C2" t="n">
-        <v>96.20468359844686</v>
+        <v>96.20468359843976</v>
       </c>
       <c r="D2" t="n">
-        <v>63.89195336408261</v>
+        <v>63.89195336407812</v>
       </c>
       <c r="E2" t="n">
-        <v>7.741040585876945</v>
+        <v>7.741040585876362</v>
       </c>
       <c r="F2" t="n">
-        <v>1.330245252276359</v>
+        <v>1.330245252276402</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38310148007441</v>
+        <v>1.383101480074441</v>
       </c>
       <c r="H2" t="n">
         <v>0.625</v>

--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>146.8421712579391</v>
       </c>
       <c r="C2" t="n">
-        <v>117.1854749359972</v>
+        <v>117.0628926591638</v>
       </c>
       <c r="D2" t="n">
-        <v>176.9565107195716</v>
+        <v>176.0659046146789</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -499,10 +499,10 @@
         <v>-5.429409328153596</v>
       </c>
       <c r="C3" t="n">
-        <v>-38.53935104550074</v>
+        <v>-36.93541237921186</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9992461483827</v>
+        <v>28.20851017698624</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -519,10 +519,10 @@
         <v>-173.3312784248795</v>
       </c>
       <c r="C4" t="n">
-        <v>-202.8387417369107</v>
+        <v>-203.8548144331846</v>
       </c>
       <c r="D4" t="n">
-        <v>-143.3682900066848</v>
+        <v>-142.2910471172409</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -539,10 +539,10 @@
         <v>-137.3345712056212</v>
       </c>
       <c r="C5" t="n">
-        <v>-167.063036993626</v>
+        <v>-165.6611159709337</v>
       </c>
       <c r="D5" t="n">
-        <v>-108.3062583190663</v>
+        <v>-109.9801315747668</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -559,10 +559,10 @@
         <v>6.264667556163126</v>
       </c>
       <c r="C6" t="n">
-        <v>-32.55228336396421</v>
+        <v>-29.96893529049933</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5289541656909</v>
+        <v>41.86103562844475</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -579,10 +579,10 @@
         <v>4.482540821748039</v>
       </c>
       <c r="C7" t="n">
-        <v>-31.67385358759028</v>
+        <v>-31.93069687780844</v>
       </c>
       <c r="D7" t="n">
-        <v>40.65054214303533</v>
+        <v>38.66608605239425</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -599,10 +599,10 @@
         <v>0.4364558751935022</v>
       </c>
       <c r="C8" t="n">
-        <v>-35.3172627332839</v>
+        <v>-34.1495771119474</v>
       </c>
       <c r="D8" t="n">
-        <v>33.87297099388086</v>
+        <v>35.22877330497928</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -619,10 +619,10 @@
         <v>4.61813905086391</v>
       </c>
       <c r="C9" t="n">
-        <v>-32.52041909407083</v>
+        <v>-32.07427630156615</v>
       </c>
       <c r="D9" t="n">
-        <v>38.71730189432564</v>
+        <v>38.89112197568122</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
